--- a/artfynd/A 9114-2025 artfynd.xlsx
+++ b/artfynd/A 9114-2025 artfynd.xlsx
@@ -7515,12 +7515,7 @@
         <v>123818542</v>
       </c>
       <c r="B66" t="n">
-        <v>57529</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
-        </is>
+        <v>57881</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7625,12 +7620,7 @@
         <v>123818682</v>
       </c>
       <c r="B67" t="n">
-        <v>57529</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
-        </is>
+        <v>57881</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
